--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -482,14 +482,12 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>2</v>
       </c>
@@ -517,14 +515,12 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -539,25 +535,21 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -566,25 +558,21 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -593,15 +581,11 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>2</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
@@ -612,7 +596,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>5</v>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -514,13 +514,13 @@
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="n">
-        <v>2</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -529,9 +529,7 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -539,7 +537,9 @@
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
@@ -552,9 +552,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
@@ -572,7 +570,9 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -585,23 +585,23 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>5</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -509,18 +509,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -533,35 +533,37 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>2</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -570,9 +572,7 @@
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>3</v>
       </c>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -467,140 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>2.889199490533839</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>3.092219198169376</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2.681193804371829</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3.83643847996966</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>2.302907360763277</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.319340229102435</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>1.387830328891983</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.098559200839017</v>
+      </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>2.701830852260426</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>1.849843353183893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1.691306705264955</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1.74189891952304</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3.836154504698668</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2.439825773621144</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1.642261822307128</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>3.949986307974515</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>4.617614381642719</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1.321962111258519</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.182219866821621</v>
+      </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4.365714626732167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>4.008100448039686</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.999690834518022</v>
+      </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2.373066655342138</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4.276644129887038</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>4.093234498167008</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.829837260896084</v>
+      </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3.772954733870566</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.521830868176646</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>1.474894209769482</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.409936864520573</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="n">
+        <v>2.205303098980429</v>
+      </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>1.241161683232138</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2.144697205801279</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>1.145159003503753</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>2.880126049408947</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>1.769851717238091</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.442969643275171</v>
+      </c>
       <c r="H5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>4.601192593353239</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.433785068173484</v>
+      </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>1.951820625276469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>2.20527113545737</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.83431328700546</v>
+      </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>4.550357815246011</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>2.342364877084227</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
+        <v>2.418502532494228</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.975990396879374</v>
+      </c>
       <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>3.543106977292122</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.167240884374979</v>
+      </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.721157150058852</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>4.161082826469325</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -467,162 +467,162 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.889199490533839</v>
+        <v>3.812427809924745</v>
       </c>
       <c r="B2" t="n">
-        <v>3.092219198169376</v>
+        <v>2.813549147111862</v>
       </c>
       <c r="C2" t="n">
-        <v>2.681193804371829</v>
+        <v>4.391227055434601</v>
       </c>
       <c r="D2" t="n">
-        <v>3.83643847996966</v>
+        <v>2.403665898704123</v>
       </c>
       <c r="E2" t="n">
-        <v>2.302907360763277</v>
+        <v>2.769460015309075</v>
       </c>
       <c r="F2" t="n">
-        <v>1.319340229102435</v>
+        <v>3.355007062417661</v>
       </c>
       <c r="G2" t="n">
-        <v>1.387830328891983</v>
+        <v>2.012216316203637</v>
       </c>
       <c r="H2" t="n">
-        <v>3.098559200839017</v>
+        <v>4.446770942949303</v>
       </c>
       <c r="I2" t="n">
-        <v>2.701830852260426</v>
+        <v>3.004794007016691</v>
       </c>
       <c r="J2" t="n">
-        <v>1.849843353183893</v>
+        <v>2.744575892758047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.691306705264955</v>
+        <v>2.588843269171903</v>
       </c>
       <c r="B3" t="n">
-        <v>1.74189891952304</v>
+        <v>1.884968442853243</v>
       </c>
       <c r="C3" t="n">
-        <v>3.836154504698668</v>
+        <v>3.968766765729345</v>
       </c>
       <c r="D3" t="n">
-        <v>2.439825773621144</v>
+        <v>3.162346218837713</v>
       </c>
       <c r="E3" t="n">
-        <v>1.642261822307128</v>
+        <v>2.447460699709754</v>
       </c>
       <c r="F3" t="n">
-        <v>3.949986307974515</v>
+        <v>3.414249697920108</v>
       </c>
       <c r="G3" t="n">
-        <v>4.617614381642719</v>
+        <v>2.43118499649366</v>
       </c>
       <c r="H3" t="n">
-        <v>1.321962111258519</v>
+        <v>3.222432994703677</v>
       </c>
       <c r="I3" t="n">
-        <v>1.182219866821621</v>
+        <v>2.452741056935799</v>
       </c>
       <c r="J3" t="n">
-        <v>4.365714626732167</v>
+        <v>3.34701124322963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.008100448039686</v>
+        <v>4.122304951758601</v>
       </c>
       <c r="B4" t="n">
-        <v>3.999690834518022</v>
+        <v>2.346227336742447</v>
       </c>
       <c r="C4" t="n">
-        <v>2.373066655342138</v>
+        <v>3.97766604580601</v>
       </c>
       <c r="D4" t="n">
-        <v>4.276644129887038</v>
+        <v>3.901608383771181</v>
       </c>
       <c r="E4" t="n">
-        <v>4.093234498167008</v>
+        <v>4.112955679302044</v>
       </c>
       <c r="F4" t="n">
-        <v>1.829837260896084</v>
+        <v>3.500633093787791</v>
       </c>
       <c r="G4" t="n">
-        <v>3.772954733870566</v>
+        <v>2.510038944928269</v>
       </c>
       <c r="H4" t="n">
-        <v>2.521830868176646</v>
+        <v>2.041657998425853</v>
       </c>
       <c r="I4" t="n">
-        <v>1.474894209769482</v>
+        <v>4.131327045497684</v>
       </c>
       <c r="J4" t="n">
-        <v>4.409936864520573</v>
+        <v>2.285070901364014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.205303098980429</v>
+        <v>3.905389603990299</v>
       </c>
       <c r="B5" t="n">
-        <v>1.241161683232138</v>
+        <v>3.327901311750876</v>
       </c>
       <c r="C5" t="n">
-        <v>2.144697205801279</v>
+        <v>2.804598955698784</v>
       </c>
       <c r="D5" t="n">
-        <v>1.145159003503753</v>
+        <v>2.374926152029759</v>
       </c>
       <c r="E5" t="n">
-        <v>2.880126049408947</v>
+        <v>3.013895078787344</v>
       </c>
       <c r="F5" t="n">
-        <v>1.769851717238091</v>
+        <v>2.643016829885431</v>
       </c>
       <c r="G5" t="n">
-        <v>4.442969643275171</v>
+        <v>1.894188610838763</v>
       </c>
       <c r="H5" t="n">
-        <v>4.601192593353239</v>
+        <v>4.192651239885459</v>
       </c>
       <c r="I5" t="n">
-        <v>2.433785068173484</v>
+        <v>2.240477775711805</v>
       </c>
       <c r="J5" t="n">
-        <v>1.951820625276469</v>
+        <v>2.221517357901461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.20527113545737</v>
+        <v>2.999995349963344</v>
       </c>
       <c r="B6" t="n">
-        <v>2.83431328700546</v>
+        <v>4.946021798366199</v>
       </c>
       <c r="C6" t="n">
-        <v>4.550357815246011</v>
+        <v>2.65186824845668</v>
       </c>
       <c r="D6" t="n">
-        <v>2.342364877084227</v>
+        <v>4.120069419818656</v>
       </c>
       <c r="E6" t="n">
-        <v>2.418502532494228</v>
+        <v>3.710553523865376</v>
       </c>
       <c r="F6" t="n">
-        <v>3.975990396879374</v>
+        <v>2.118820816042386</v>
       </c>
       <c r="G6" t="n">
-        <v>3.543106977292122</v>
+        <v>4.57965942370834</v>
       </c>
       <c r="H6" t="n">
-        <v>3.167240884374979</v>
+        <v>4.105742890327854</v>
       </c>
       <c r="I6" t="n">
-        <v>4.721157150058852</v>
+        <v>3.857290904565165</v>
       </c>
       <c r="J6" t="n">
-        <v>4.161082826469325</v>
+        <v>4.290342328981123</v>
       </c>
     </row>
   </sheetData>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -467,163 +467,141 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.812427809924745</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.813549147111862</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>4.391227055434601</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>2.403665898704123</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2.769460015309075</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>3.355007062417661</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.012216316203637</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.446770942949303</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>3.004794007016691</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.744575892758047</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.588843269171903</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.884968442853243</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3.968766765729345</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.162346218837713</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>2.447460699709754</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3.414249697920108</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.43118499649366</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3.222432994703677</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.452741056935799</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.34701124322963</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4.122304951758601</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2.346227336742447</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3.97766604580601</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.901608383771181</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>4.112955679302044</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.500633093787791</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2.510038944928269</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.041657998425853</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.131327045497684</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.285070901364014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3.905389603990299</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="n">
-        <v>3.327901311750876</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.804598955698784</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>2.374926152029759</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>3.013895078787344</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2.643016829885431</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>1.894188610838763</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.192651239885459</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.240477775711805</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>2.221517357901461</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.999995349963344</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4.946021798366199</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2.65186824845668</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.120069419818656</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>3.710553523865376</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.118820816042386</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>4.57965942370834</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.105742890327854</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>3.857290904565165</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.290342328981123</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
+++ b/_xls/X-u5-i10_semindices.xlsx-avaliacoes_df-ma_fair.xlsx
@@ -481,19 +481,17 @@
       <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
       <c r="I2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -508,19 +506,17 @@
       <c r="D3" t="n">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
       <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>3</v>
       </c>
@@ -529,7 +525,9 @@
       <c r="A4" t="n">
         <v>5</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -541,15 +539,11 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -560,19 +554,17 @@
       <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>2</v>
       </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" t="n">
         <v>3</v>
       </c>
@@ -581,15 +573,11 @@
       <c r="A6" t="n">
         <v>2</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
@@ -597,7 +585,9 @@
       <c r="G6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
       <c r="I6" t="n">
         <v>5</v>
       </c>
